--- a/theAnalyticsEdge/Unit08_Linear_Optimization/Investment.xlsx
+++ b/theAnalyticsEdge/Unit08_Linear_Optimization/Investment.xlsx
@@ -1,15 +1,58 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21721"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f10fa6c116ff5555/dsmain/theAnalyticsEdge/Unit08_Linear_Optimization/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19620" windowHeight="13880" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7224" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$C$17:$C$24</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Sheet1!$B$30</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Sheet1!$B$31:$B$38</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Sheet1!$B$39:$B$46</definedName>
+    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$A$27</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">Sheet1!$D$30</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">Sheet1!$D$31:$D$38</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">Sheet1!$D$39:$D$46</definedName>
+    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+  </definedNames>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
   <si>
     <t>INVESTMENT MANAGEMENT UNDER TAXATION</t>
   </si>
@@ -67,13 +110,58 @@
   </si>
   <si>
     <t>Pfizer</t>
+  </si>
+  <si>
+    <t>decision variables</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>number to sell</t>
+  </si>
+  <si>
+    <t>Objective: maximize nex year's portfolio</t>
+  </si>
+  <si>
+    <t>number left</t>
+  </si>
+  <si>
+    <t>Constraints</t>
+  </si>
+  <si>
+    <t>LHS</t>
+  </si>
+  <si>
+    <t>sign</t>
+  </si>
+  <si>
+    <t>RHS</t>
+  </si>
+  <si>
+    <t>&gt;=</t>
+  </si>
+  <si>
+    <t>&lt;=</t>
+  </si>
+  <si>
+    <t>TOTAL SELL</t>
+  </si>
+  <si>
+    <t>capital gain</t>
+  </si>
+  <si>
+    <t>tax</t>
+  </si>
+  <si>
+    <t>trans cost</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -85,23 +173,45 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF89D3DC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5FDD50"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -195,11 +305,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -247,12 +398,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -578,24 +741,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="26.33203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="26.296875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="17" style="3" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="23.83203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="21.83203125" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="26.33203125" style="3"/>
+    <col min="3" max="3" width="20.69921875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="23.796875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.19921875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="21.796875" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="26.296875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -605,7 +768,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -613,7 +776,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -623,7 +786,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="16" thickBot="1">
+    <row r="4" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -631,7 +794,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="16" thickBot="1">
+    <row r="5" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -651,7 +814,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>1</v>
       </c>
@@ -671,7 +834,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>2</v>
       </c>
@@ -691,7 +854,7 @@
         <v>26.31</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>3</v>
       </c>
@@ -711,7 +874,7 @@
         <v>34.549999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>4</v>
       </c>
@@ -731,7 +894,7 @@
         <v>15.23</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>5</v>
       </c>
@@ -751,7 +914,7 @@
         <v>62.43</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>6</v>
       </c>
@@ -771,7 +934,7 @@
         <v>26.68</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>7</v>
       </c>
@@ -791,7 +954,7 @@
         <v>23.85</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="16" thickBot="1">
+    <row r="13" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>8</v>
       </c>
@@ -809,6 +972,557 @@
       </c>
       <c r="F13" s="16">
         <v>31.66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="3">
+        <v>100</v>
+      </c>
+      <c r="D17" s="3">
+        <f>C6-C17</f>
+        <v>50</v>
+      </c>
+      <c r="E17" s="3">
+        <f>(E6-D6)*C17</f>
+        <v>1612</v>
+      </c>
+      <c r="F17" s="3">
+        <f>E17*0.3</f>
+        <v>483.59999999999997</v>
+      </c>
+      <c r="G17" s="3">
+        <f>C17*E6*0.01</f>
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>2</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="3">
+        <v>75</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" ref="D18:D24" si="0">C7-C18</f>
+        <v>75</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" ref="E18:E24" si="1">(E7-D7)*C18</f>
+        <v>163.49999999999997</v>
+      </c>
+      <c r="F18" s="3">
+        <f t="shared" ref="F18:F24" si="2">E18*0.3</f>
+        <v>49.04999999999999</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" ref="G18:G24" si="3">C18*E7*0.01</f>
+        <v>18.21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>3</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="3">
+        <v>75</v>
+      </c>
+      <c r="D19" s="3">
+        <f>C8-C19</f>
+        <v>75</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="1"/>
+        <v>158.24999999999994</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" si="2"/>
+        <v>47.47499999999998</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="3"/>
+        <v>24.375</v>
+      </c>
+      <c r="H19" s="3">
+        <f>E8*50-(E8-D8)*0.3-E8*50*0.01</f>
+        <v>1608.117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>4</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="E20" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <f t="shared" ref="H20:H23" si="4">E9*50-(E9-D9)*0.3-E9*50*0.01</f>
+        <v>699.351</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>5</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <f t="shared" si="4"/>
+        <v>2520.873</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>6</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="E22" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <f t="shared" si="4"/>
+        <v>1194.7380000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>7</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="3">
+        <v>75</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="E23" s="3">
+        <f>(E12-D12)*C23</f>
+        <v>84.750000000000199</v>
+      </c>
+      <c r="F23" s="3">
+        <f>E23*0.3</f>
+        <v>25.425000000000058</v>
+      </c>
+      <c r="G23" s="3">
+        <f>C23*E12*0.01</f>
+        <v>17.752500000000001</v>
+      </c>
+      <c r="H23" s="3">
+        <f>E12*50-50*(E12-D12)*0.3-E12*50*0.01</f>
+        <v>1154.7149999999999</v>
+      </c>
+      <c r="I23" s="3">
+        <f>(E12*C23-F23-G23)/3</f>
+        <v>577.35750000000007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="3">
+        <v>8</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="3">
+        <v>54.350115187541491</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" si="0"/>
+        <v>95.649884812458509</v>
+      </c>
+      <c r="E24" s="3">
+        <f t="shared" si="1"/>
+        <v>213.59595268703805</v>
+      </c>
+      <c r="F24" s="3">
+        <f t="shared" si="2"/>
+        <v>64.078785806111412</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" si="3"/>
+        <v>15.636528139455686</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C25" s="3">
+        <f>SUM(C17:C24)</f>
+        <v>379.35011518754152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="18">
+        <f>SUMPRODUCT(F6:F13, D17:D24)</f>
+        <v>26507.525353162437</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="19">
+        <f>SUMPRODUCT(E6:E13,C17:C24)-SUM(F17:F24)-SUM(G17:G24)</f>
+        <v>10000.000000000002</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="19">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" s="19">
+        <f>C17</f>
+        <v>100</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32" s="19">
+        <f>C18</f>
+        <v>75</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33" s="19">
+        <f t="shared" ref="B32:B38" si="5">C19</f>
+        <v>75</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>5</v>
+      </c>
+      <c r="B35" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>6</v>
+      </c>
+      <c r="B36" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>7</v>
+      </c>
+      <c r="B37" s="19">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>8</v>
+      </c>
+      <c r="B38" s="19">
+        <f>C24</f>
+        <v>54.350115187541491</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>1</v>
+      </c>
+      <c r="B39" s="20">
+        <f>C17</f>
+        <v>100</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <v>2</v>
+      </c>
+      <c r="B40" s="20">
+        <f t="shared" ref="B40:B46" si="6">C18</f>
+        <v>75</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
+        <v>3</v>
+      </c>
+      <c r="B41" s="20">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <v>4</v>
+      </c>
+      <c r="B42" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
+        <v>5</v>
+      </c>
+      <c r="B43" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
+        <v>6</v>
+      </c>
+      <c r="B44" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
+        <v>7</v>
+      </c>
+      <c r="B45" s="20">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
+        <v>8</v>
+      </c>
+      <c r="B46" s="20">
+        <f t="shared" si="6"/>
+        <v>54.350115187541491</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" s="3">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
